--- a/_resource/excel/S-商店-商店配置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/S-商店-商店配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -706,7 +706,7 @@
     <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="16" style="6" customWidth="1"/>
     <col min="3" max="4" width="27.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="6" customWidth="1"/>
     <col min="7" max="8" width="18.375" style="6" customWidth="1"/>
     <col min="9" max="10" width="15" style="6" customWidth="1"/>
